--- a/biology/Médecine/Ménisque_médial_de_l'articulation_du_genou/Ménisque_médial_de_l'articulation_du_genou.xlsx
+++ b/biology/Médecine/Ménisque_médial_de_l'articulation_du_genou/Ménisque_médial_de_l'articulation_du_genou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_m%C3%A9dial_de_l%27articulation_du_genou</t>
+          <t>Ménisque_médial_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ménisque médial du genou (ou fibrocartilage semi-lunaire interne du genou ou ménisque interarticulaire interne du genou) est une formation fibrocartilagineuse qui est placé entre le condyle médial du fémur et le condyle médial de la surface articulaire supérieure du tibia. Il complète le ménisque latéral de l'articulation du genou pour former une ceinture méniscale entre les surface articulaires du fémur et du tibia intervenant dans l'articulation fémoro-tibiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_m%C3%A9dial_de_l%27articulation_du_genou</t>
+          <t>Ménisque_médial_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ménisque médial du genou est une lame prismatique triangulaire recourbée en C ouvert latéralement. Il est plus épais dans sa partie postérieure
 Sa corne antérieure se fixe sur le tibia en avant du ligament croisé antérieur.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_m%C3%A9dial_de_l%27articulation_du_genou</t>
+          <t>Ménisque_médial_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lésion aiguë du ménisque médial s'accompagne fréquemment d'une lésion du ligament croisé antérieur ou du ligament collatéral tibial.
 La guérison du ménisque médial n'est généralement possible que si le patient est très jeune, généralement &lt;15 ans.
